--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Dropbox/DraftTable/Repos/psyc3400/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72382FA2-8671-674C-8C22-BB28C12FA385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="14640" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="Lectures" localSheetId="1">'Sheet1 (2)'!$A$1:$E$50</definedName>
     <definedName name="Lectures" localSheetId="2">'Sheet1 (3)'!$A$1:$F$50</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,8 +35,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Lectures" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Lectures" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mattcrump/Dropbox/Courses/Statistics/Spring 2019/Lectures.csv">
       <textFields count="5">
         <textField/>
@@ -46,7 +47,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="Lectures1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Lectures1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mattcrump/Dropbox/Courses/Statistics/Spring 2019/Lectures.csv">
       <textFields count="5">
         <textField/>
@@ -57,7 +58,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="Lectures2" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="Lectures2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mattcrump/Dropbox/Courses/Statistics/Spring 2019/Lectures.csv">
       <textFields count="5">
         <textField/>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="155">
   <si>
     <t>Week</t>
   </si>
@@ -501,12 +502,48 @@
   </si>
   <si>
     <t>M May 20 10:30AM - 12:30 PM</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Datasets</t>
+  </si>
+  <si>
+    <t>Reading Basic</t>
+  </si>
+  <si>
+    <t>Reading Advanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataCamp Practice </t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction and Software </t>
+  </si>
+  <si>
+    <t>[Getting started with R (2) ](https://learningstatisticswithr.com/book/introR.html)</t>
+  </si>
+  <si>
+    <t>Data Types and Basic Variable Manipulation</t>
+  </si>
+  <si>
+    <t>Conditionals, Loops, and Apply</t>
+  </si>
+  <si>
+    <t>Data Import and Formatting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -560,20 +597,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Lectures" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Lectures" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Lectures" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Lectures" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Lectures" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Lectures" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,11 +878,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -856,32 +896,35 @@
     <col min="7" max="7" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -891,15 +934,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -909,8 +952,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>116</v>
@@ -923,8 +969,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>105</v>
@@ -932,7 +981,7 @@
     </row>
     <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -948,6 +997,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>55</v>
       </c>
@@ -962,6 +1014,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>89</v>
       </c>
@@ -970,6 +1025,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>83</v>
       </c>
@@ -985,7 +1043,7 @@
     </row>
     <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -1001,6 +1059,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>90</v>
       </c>
@@ -1009,6 +1070,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
@@ -1017,6 +1081,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -1031,6 +1098,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
         <v>91</v>
       </c>
@@ -1040,7 +1110,7 @@
     </row>
     <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -1056,6 +1126,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>60</v>
       </c>
@@ -1483,7 +1556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1689,7 +1762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>62</v>
       </c>
@@ -1705,7 +1778,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1719,7 +1792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>64</v>
       </c>
@@ -1735,7 +1808,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7</v>
       </c>
@@ -1749,7 +1822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>66</v>
       </c>
@@ -1765,7 +1838,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1779,7 +1852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>68</v>
       </c>
@@ -1795,7 +1868,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>9</v>
       </c>
@@ -1809,7 +1882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>70</v>
       </c>
@@ -1825,7 +1898,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10</v>
       </c>
@@ -1839,7 +1912,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>72</v>
       </c>
@@ -1855,7 +1928,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>11</v>
       </c>
@@ -1869,7 +1942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>74</v>
       </c>
@@ -1888,7 +1961,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -1902,7 +1975,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -1921,7 +1994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>77</v>
       </c>
@@ -1932,7 +2005,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>13</v>
       </c>
@@ -1951,7 +2024,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>79</v>
       </c>
@@ -1962,7 +2035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>14</v>
       </c>
@@ -1981,7 +2054,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>81</v>
       </c>
@@ -1992,7 +2065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2003,7 +2076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>51</v>
       </c>
@@ -2014,7 +2087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72382FA2-8671-674C-8C22-BB28C12FA385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73CB171-704F-C94C-BE93-6F852BFEF736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="14640" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="18420" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="162">
   <si>
     <t>Week</t>
   </si>
@@ -489,21 +489,6 @@
     <t>Flex</t>
   </si>
   <si>
-    <t>Missed Class due to snow</t>
-  </si>
-  <si>
-    <t>flex</t>
-  </si>
-  <si>
-    <t>[Power and Effect-size](https://crumplab.github.io/psyc3400/Presentations/6d_power.html#1)</t>
-  </si>
-  <si>
-    <t>M May 20</t>
-  </si>
-  <si>
-    <t>M May 20 10:30AM - 12:30 PM</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
@@ -538,6 +523,42 @@
   </si>
   <si>
     <t>Data Import and Formatting</t>
+  </si>
+  <si>
+    <t>Data Manipulation</t>
+  </si>
+  <si>
+    <t>String Manipulation</t>
+  </si>
+  <si>
+    <t>Data Visualization</t>
+  </si>
+  <si>
+    <t>Introduction to Statistics</t>
+  </si>
+  <si>
+    <t>Analysis of Variance</t>
+  </si>
+  <si>
+    <t>General and Generalized Linear Model</t>
+  </si>
+  <si>
+    <t>Generating Reports and Web Apps</t>
+  </si>
+  <si>
+    <t>Web Scraping and APIs</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Language Processing </t>
+  </si>
+  <si>
+    <t>Structural Equation Programming</t>
+  </si>
+  <si>
+    <t>Item Response Theory</t>
   </si>
 </sst>
 </file>
@@ -573,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -586,6 +607,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,35 +925,37 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -935,14 +964,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -952,11 +978,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>116</v>
@@ -969,22 +995,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>117</v>
@@ -997,11 +1023,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>117</v>
@@ -1014,22 +1040,22 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>118</v>
@@ -1042,11 +1068,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>118</v>
@@ -1059,33 +1085,33 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="G11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>119</v>
@@ -1098,22 +1124,22 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>119</v>
@@ -1126,11 +1152,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>120</v>
@@ -1143,412 +1169,54 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" t="s">
-        <v>112</v>
-      </c>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>14</v>
-      </c>
-      <c r="B46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D41"/>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>51</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73CB171-704F-C94C-BE93-6F852BFEF736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B207D8-0BA8-0C42-8E51-7A0363AB8BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="18420" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="17760" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="162">
   <si>
     <t>Week</t>
   </si>
@@ -495,9 +495,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>Datasets</t>
-  </si>
-  <si>
     <t>Reading Basic</t>
   </si>
   <si>
@@ -513,9 +510,6 @@
     <t xml:space="preserve">Introduction and Software </t>
   </si>
   <si>
-    <t>[Getting started with R (2) ](https://learningstatisticswithr.com/book/introR.html)</t>
-  </si>
-  <si>
     <t>Data Types and Basic Variable Manipulation</t>
   </si>
   <si>
@@ -559,6 +553,12 @@
   </si>
   <si>
     <t>Item Response Theory</t>
+  </si>
+  <si>
+    <t>[Designing Projects](https://nicercode.github.io/blog/2013-04-05-projects/)</t>
+  </si>
+  <si>
+    <t>[Getting started with R (2) ]https://rafalab.github.io/dsbook/getting-started.html)</t>
   </si>
 </sst>
 </file>
@@ -908,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -931,44 +931,45 @@
         <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -982,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>116</v>
@@ -994,23 +995,21 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>117</v>
@@ -1027,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>117</v>
@@ -1039,23 +1038,21 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>118</v>
@@ -1072,7 +1069,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>118</v>
@@ -1089,10 +1086,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1100,7 +1094,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
@@ -1111,7 +1105,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>119</v>
@@ -1123,23 +1117,21 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>119</v>
@@ -1156,7 +1148,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>120</v>
@@ -1168,16 +1160,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G20" s="1"/>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B207D8-0BA8-0C42-8E51-7A0363AB8BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33B33C5-67B1-E34B-9258-5B84A4BE1AB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="17760" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="17760" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="165">
   <si>
     <t>Week</t>
   </si>
@@ -559,6 +559,15 @@
   </si>
   <si>
     <t>[Getting started with R (2) ]https://rafalab.github.io/dsbook/getting-started.html)</t>
+  </si>
+  <si>
+    <t>[Introduction (4)](https://r4ds.had.co.nz/introduction.html)</t>
+  </si>
+  <si>
+    <t>[R basics (3)](https://rafalab.github.io/dsbook/r-basics.html)</t>
+  </si>
+  <si>
+    <t>[DataCamp 1](https://www.datacamp.com/courses/free-introduction-to-r)</t>
   </si>
 </sst>
 </file>
@@ -908,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -954,10 +963,10 @@
       <c r="C2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="D2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
@@ -972,10 +981,10 @@
         <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33B33C5-67B1-E34B-9258-5B84A4BE1AB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70680ACF-65EF-1F4F-9E38-FE9E8C4CC9C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="17760" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="173">
   <si>
     <t>Week</t>
   </si>
@@ -558,16 +558,40 @@
     <t>[Designing Projects](https://nicercode.github.io/blog/2013-04-05-projects/)</t>
   </si>
   <si>
-    <t>[Getting started with R (2) ]https://rafalab.github.io/dsbook/getting-started.html)</t>
-  </si>
-  <si>
-    <t>[Introduction (4)](https://r4ds.had.co.nz/introduction.html)</t>
-  </si>
-  <si>
-    <t>[R basics (3)](https://rafalab.github.io/dsbook/r-basics.html)</t>
-  </si>
-  <si>
     <t>[DataCamp 1](https://www.datacamp.com/courses/free-introduction-to-r)</t>
+  </si>
+  <si>
+    <t>[Introduction](https://r4ds.had.co.nz/introduction.html)</t>
+  </si>
+  <si>
+    <t>[Using apply, sapply, lapply in R](https://www.r-bloggers.com/using-apply-sapply-lapply-in-r/)</t>
+  </si>
+  <si>
+    <t>[Programming basics](https://rafalab.github.io/dsbook/programming-basics.html)</t>
+  </si>
+  <si>
+    <t>[DataCamp2b](https://www.datacamp.com/courses/intermediate-r-practice)</t>
+  </si>
+  <si>
+    <t>[R basics](https://rafalab.github.io/dsbook/r-basics.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[DataCamp 2a](https://www.datacamp.com/courses/intermediate-r) </t>
+  </si>
+  <si>
+    <t>[Getting started with R](https://rafalab.github.io/dsbook/getting-started.html)</t>
+  </si>
+  <si>
+    <t>[data.table vs dplyr](https://stackoverflow.com/questions/21435339/data-table-vs-dplyr-can-one-do-something-well-the-other-cant-or-does-poorly)</t>
+  </si>
+  <si>
+    <t>[The tidyverse](https://rafalab.github.io/dsbook/tidyverse.html)</t>
+  </si>
+  <si>
+    <t>[DataCamp 3a](https://www.datacamp.com/courses/importing-data-in-r-part-1)</t>
+  </si>
+  <si>
+    <t>[DataCamp 3b](https://www.datacamp.com/courses/cleaning-data-in-r)</t>
   </si>
 </sst>
 </file>
@@ -917,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,7 +985,7 @@
         <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>162</v>
@@ -981,13 +1005,13 @@
         <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -995,25 +1019,40 @@
         <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>164</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>147</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1027,10 +1066,10 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1042,6 +1081,9 @@
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>105</v>
@@ -1054,9 +1096,12 @@
       <c r="B8" t="s">
         <v>150</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1070,10 +1115,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1085,6 +1130,9 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>106</v>
@@ -1097,8 +1145,11 @@
       <c r="B11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E11" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1108,8 +1159,11 @@
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="E12" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1121,6 +1175,9 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>107</v>
@@ -1133,9 +1190,12 @@
       <c r="B14" t="s">
         <v>156</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1149,10 +1209,10 @@
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1164,6 +1224,9 @@
       </c>
       <c r="D16" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>109</v>
@@ -1175,6 +1238,9 @@
       </c>
       <c r="B17" t="s">
         <v>159</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="G17" s="1"/>
     </row>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70680ACF-65EF-1F4F-9E38-FE9E8C4CC9C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C2DF6B-87CD-DE43-99A0-AAB163A15834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="17760" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="16980" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="194">
   <si>
     <t>Week</t>
   </si>
@@ -501,9 +501,6 @@
     <t>Reading Advanced</t>
   </si>
   <si>
-    <t xml:space="preserve">DataCamp Practice </t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
@@ -592,6 +589,72 @@
   </si>
   <si>
     <t>[DataCamp 3b](https://www.datacamp.com/courses/cleaning-data-in-r)</t>
+  </si>
+  <si>
+    <t>[Data wrangling](https://r4ds.had.co.nz/wrangle-intro.htmll)</t>
+  </si>
+  <si>
+    <t>[ Data Transformation](https://r4ds.had.co.nz/transform.html)</t>
+  </si>
+  <si>
+    <t>[DataCamp 4a](https://www.datacamp.com/courses/data-manipulation-with-dplyr-in-r)</t>
+  </si>
+  <si>
+    <t>[DataCamp 4b](https://www.datacamp.com/courses/joining-data-with-dplyr-in-r/)</t>
+  </si>
+  <si>
+    <t>[Demystifying RegEx](https://www.sitepoint.com/demystifying-regex-with-practical-examples/)</t>
+  </si>
+  <si>
+    <t>[Strings](https://r4ds.had.co.nz/strings.html#tools)</t>
+  </si>
+  <si>
+    <t>[DataCamp 5](https://www.datacamp.com/courses/string-manipulation-in-r-with-stringr)</t>
+  </si>
+  <si>
+    <t>[RegexOne](https://regexone.com/)</t>
+  </si>
+  <si>
+    <t>DataCamp Course 1</t>
+  </si>
+  <si>
+    <t>DataCamp Course 2</t>
+  </si>
+  <si>
+    <t>[Awesome Visualizations](https://blog.udacity.com/2015/01/15-data-visualizations-will-blow-mind.html)</t>
+  </si>
+  <si>
+    <t>[Data Visualization](https://r4ds.had.co.nz/data-visualisation.html)</t>
+  </si>
+  <si>
+    <t>[DataCamp 6a](https://www.datacamp.com/courses/data-visualization-with-ggplot2-1)</t>
+  </si>
+  <si>
+    <t>[DataCamp 6b](https://www.datacamp.com/courses/data-visualization-with-ggplot2-2)</t>
+  </si>
+  <si>
+    <t>[Statistical Theory](https://learningstatisticswithr.com/book/part-iv-statistical-theory.html)</t>
+  </si>
+  <si>
+    <t>[Learning Statistics with R](https://psyr.djnavarro.net/probability.html)</t>
+  </si>
+  <si>
+    <t>[DataCamp 7a](https://learn.datacamp.com/courses/introduction-to-statistics-in-r)</t>
+  </si>
+  <si>
+    <t>[DataCamp 7b](https://learn.datacamp.com/skill-tracks/probability-and-distribution-with-r)</t>
+  </si>
+  <si>
+    <t>DataCamp Course 3</t>
+  </si>
+  <si>
+    <t>DataCamp Course 4</t>
+  </si>
+  <si>
+    <t>[DataCamp 7c](https://learn.datacamp.com/skill-tracks/statistical-inference-with-r)</t>
+  </si>
+  <si>
+    <t>[DataCamp 7d](https://learn.datacamp.com/skill-tracks/learn-statistics-with-r)</t>
   </si>
 </sst>
 </file>
@@ -939,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -956,7 +1019,7 @@
     <col min="7" max="7" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>138</v>
       </c>
@@ -970,160 +1033,189 @@
         <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>161</v>
+        <v>184</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>118</v>
@@ -1132,43 +1224,43 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>119</v>
@@ -1177,30 +1269,30 @@
         <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>119</v>
@@ -1209,15 +1301,15 @@
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>120</v>
@@ -1226,7 +1318,7 @@
         <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>109</v>
@@ -1237,10 +1329,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G17" s="1"/>
     </row>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C2DF6B-87CD-DE43-99A0-AAB163A15834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5766A931-1427-6C4B-8550-88B0391CDE45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="16980" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Lectures" localSheetId="0">Sheet1!$A$1:$F$50</definedName>
+    <definedName name="Lectures" localSheetId="0">Sheet1!$A$1:$F$51</definedName>
     <definedName name="Lectures" localSheetId="1">'Sheet1 (2)'!$A$1:$E$50</definedName>
     <definedName name="Lectures" localSheetId="2">'Sheet1 (3)'!$A$1:$F$50</definedName>
   </definedNames>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="222">
   <si>
     <t>Week</t>
   </si>
@@ -528,9 +528,6 @@
     <t>Introduction to Statistics</t>
   </si>
   <si>
-    <t>Analysis of Variance</t>
-  </si>
-  <si>
     <t>General and Generalized Linear Model</t>
   </si>
   <si>
@@ -549,9 +546,6 @@
     <t>Structural Equation Programming</t>
   </si>
   <si>
-    <t>Item Response Theory</t>
-  </si>
-  <si>
     <t>[Designing Projects](https://nicercode.github.io/blog/2013-04-05-projects/)</t>
   </si>
   <si>
@@ -655,6 +649,96 @@
   </si>
   <si>
     <t>[DataCamp 7d](https://learn.datacamp.com/skill-tracks/learn-statistics-with-r)</t>
+  </si>
+  <si>
+    <t>[Quick-R ANOVA Guide](https://www.statmethods.net/stats/anova.html)</t>
+  </si>
+  <si>
+    <t>Factorial ANOVA</t>
+  </si>
+  <si>
+    <t>[Factorial ANOVA Guide](http://personality-project.org/r/r.guide/r.anova.html)</t>
+  </si>
+  <si>
+    <t>[One-Way ANOVA](https://learningstatisticswithr.com/book/anova.html)</t>
+  </si>
+  <si>
+    <t>[Factorial ANOVA](https://learningstatisticswithr.com/book/anova2.html)</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>[DataCamp 8](https://www.datacamp.com/courses/analysis-of-variance-anova)</t>
+  </si>
+  <si>
+    <t>[DataCamp 9](https://www.datacamp.com/courses/repeated-measures-anova)</t>
+  </si>
+  <si>
+    <t>[Linear Modeling](https://www.theanalysisfactor.com/why-anova-and-linear-regression-are-the-same-analysis/)</t>
+  </si>
+  <si>
+    <t>[Lienar Regression](hhttps://learningstatisticswithr.com/book/regression.html)</t>
+  </si>
+  <si>
+    <t>[DataCamp 10a](https://www.datacamp.com/courses/correlation-and-regression)</t>
+  </si>
+  <si>
+    <t>[DataCamp 10b](https://www.datacamp.com/courses/multiple-and-logistic-regression)</t>
+  </si>
+  <si>
+    <t>[R Notebooks](http://minimaxir.com/2017/06/r-notebooks/)</t>
+  </si>
+  <si>
+    <t>[Intro R Markdown](https://r4ds.had.co.nz/r-markdown.html)</t>
+  </si>
+  <si>
+    <t>[DataCamp 11](https://www.datacamp.com/courses/communicating-with-data-in-the-tidyverse)</t>
+  </si>
+  <si>
+    <t>[Web Scraping](http://neoacademic.com/2016/06/15/collecting-unstructured-data-internet-guide-psychologists/)</t>
+  </si>
+  <si>
+    <t>[Web Scraping advanced](https://rafalab.github.io/dsbook/web-scraping.html)</t>
+  </si>
+  <si>
+    <t>[DataCamp 12](https://www.datacamp.com/courses/working-with-web-data-in-r)</t>
+  </si>
+  <si>
+    <t>[Machine Learning Intro](https://www.kdnuggets.com/2016/11/machine-learning-vs-statistics.html)</t>
+  </si>
+  <si>
+    <t>[Machine Learning Intermediate](https://rafalab.github.io/dsbook/introduction-to-machine-learning.html)</t>
+  </si>
+  <si>
+    <t>[DataCamp 13](https://www.datacamp.com/courses/machine-learning-toolbox)</t>
+  </si>
+  <si>
+    <t>[NLP Intro](https://iksinc.wordpress.com/2015/04/13/words-as-vectors/)</t>
+  </si>
+  <si>
+    <t>[Text Mining Intro](https://www.tidytextmining.com/)</t>
+  </si>
+  <si>
+    <t>[DataCamp 14a](https://www.datacamp.com/courses/intro-to-text-mining-bag-of-words)</t>
+  </si>
+  <si>
+    <t>[DataCamp 14b](https://learn.datacamp.com/courses/introduction-to-text-analysis-in-r)</t>
+  </si>
+  <si>
+    <t>[DataCamp 14c](https://learn.datacamp.com/courses/introduction-to-natural-language-processing-in-r)</t>
+  </si>
+  <si>
+    <t>[DataCamp 15](https://learn.datacamp.com/courses/structural-equation-modeling-with-lavaan-in-r)</t>
+  </si>
+  <si>
+    <t>[SEM](https://lavaan.ugent.be/tutorial/sem.html)</t>
+  </si>
+  <si>
+    <t>[SEM Intro](https://bookdown.org/MathiasHarrer/Doing_Meta_Analysis_in_R/sem.html)</t>
+  </si>
+  <si>
+    <t>[Tweets across the United States ](https://www.datacamp.com/courses/sentiment-analysis-in-r-the-tidy-way)</t>
   </si>
 </sst>
 </file>
@@ -1002,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,16 +1117,16 @@
         <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>142</v>
@@ -1056,10 +1140,10 @@
         <v>143</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1073,13 +1157,13 @@
         <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -1090,16 +1174,16 @@
         <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -1110,16 +1194,16 @@
         <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1131,16 +1215,16 @@
         <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -1151,16 +1235,16 @@
         <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -1171,16 +1255,16 @@
         <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -1192,22 +1276,22 @@
         <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -1215,147 +1299,171 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>193</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>156</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G20" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G23" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D27" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G29" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G32" s="1"/>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G35" s="1"/>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D38"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G36" s="1"/>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D39"/>
@@ -1366,14 +1474,17 @@
     <row r="41" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D41"/>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G44" s="1"/>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G47" s="1"/>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F49"/>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D42"/>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5766A931-1427-6C4B-8550-88B0391CDE45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2266FC-5C63-CF46-AD9C-5EE424E12A28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="16980" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="225">
   <si>
     <t>Week</t>
   </si>
@@ -738,7 +738,16 @@
     <t>[SEM Intro](https://bookdown.org/MathiasHarrer/Doing_Meta_Analysis_in_R/sem.html)</t>
   </si>
   <si>
-    <t>[Tweets across the United States ](https://www.datacamp.com/courses/sentiment-analysis-in-r-the-tidy-way)</t>
+    <t>[DataCamp14d ](https://www.datacamp.com/courses/sentiment-analysis-in-r-the-tidy-way)</t>
+  </si>
+  <si>
+    <t>[Tweets across the United States ](https://learn.datacamp.com/projects/511)</t>
+  </si>
+  <si>
+    <t>[Visualizing COVID-19](https://learn.datacamp.com/projects/870)</t>
+  </si>
+  <si>
+    <t>[Leveling in Candy Crush Saga](https://learn.datacamp.com/projects/139)</t>
   </si>
 </sst>
 </file>
@@ -1088,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1216,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1225,6 +1234,9 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>173</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -1247,7 +1259,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1267,6 +1279,9 @@
         <v>183</v>
       </c>
       <c r="G8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -1400,7 +1415,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1422,8 +1437,11 @@
       <c r="G16" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2266FC-5C63-CF46-AD9C-5EE424E12A28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E689114-02E4-2A48-8FFB-CAF3AA7AF69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,9 +549,6 @@
     <t>[Designing Projects](https://nicercode.github.io/blog/2013-04-05-projects/)</t>
   </si>
   <si>
-    <t>[DataCamp 1](https://www.datacamp.com/courses/free-introduction-to-r)</t>
-  </si>
-  <si>
     <t>[Introduction](https://r4ds.had.co.nz/introduction.html)</t>
   </si>
   <si>
@@ -748,6 +745,9 @@
   </si>
   <si>
     <t>[Leveling in Candy Crush Saga](https://learn.datacamp.com/projects/139)</t>
+  </si>
+  <si>
+    <t>[DataCamp 1](https://www.datacamp.com/courses/free-introduction-to-r) [DataCamp 1](https://www.datacamp.com/courses/free-introduction-to-r)</t>
   </si>
 </sst>
 </file>
@@ -1097,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1126,16 +1126,16 @@
         <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>142</v>
@@ -1149,16 +1149,16 @@
         <v>143</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1169,10 +1169,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -1183,16 +1183,16 @@
         <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -1203,16 +1203,16 @@
         <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1224,19 +1224,19 @@
         <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -1247,16 +1247,16 @@
         <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="119" x14ac:dyDescent="0.2">
@@ -1267,20 +1267,20 @@
         <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="G8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -1291,22 +1291,22 @@
         <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -1314,16 +1314,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -1331,16 +1331,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -1351,16 +1351,16 @@
         <v>151</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -1371,13 +1371,13 @@
         <v>152</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -1388,13 +1388,13 @@
         <v>153</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -1405,13 +1405,13 @@
         <v>154</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1423,25 +1423,25 @@
         <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="H16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -1452,13 +1452,13 @@
         <v>156</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E689114-02E4-2A48-8FFB-CAF3AA7AF69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AE0E29-548C-304B-8008-F85ABE1C9F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="210">
   <si>
     <t>Week</t>
   </si>
@@ -549,6 +549,9 @@
     <t>[Designing Projects](https://nicercode.github.io/blog/2013-04-05-projects/)</t>
   </si>
   <si>
+    <t>[DataCamp 1](https://www.datacamp.com/courses/free-introduction-to-r)</t>
+  </si>
+  <si>
     <t>[Introduction](https://r4ds.had.co.nz/introduction.html)</t>
   </si>
   <si>
@@ -558,15 +561,9 @@
     <t>[Programming basics](https://rafalab.github.io/dsbook/programming-basics.html)</t>
   </si>
   <si>
-    <t>[DataCamp2b](https://www.datacamp.com/courses/intermediate-r-practice)</t>
-  </si>
-  <si>
     <t>[R basics](https://rafalab.github.io/dsbook/r-basics.html)</t>
   </si>
   <si>
-    <t xml:space="preserve">[DataCamp 2a](https://www.datacamp.com/courses/intermediate-r) </t>
-  </si>
-  <si>
     <t>[Getting started with R](https://rafalab.github.io/dsbook/getting-started.html)</t>
   </si>
   <si>
@@ -576,78 +573,33 @@
     <t>[The tidyverse](https://rafalab.github.io/dsbook/tidyverse.html)</t>
   </si>
   <si>
-    <t>[DataCamp 3a](https://www.datacamp.com/courses/importing-data-in-r-part-1)</t>
-  </si>
-  <si>
-    <t>[DataCamp 3b](https://www.datacamp.com/courses/cleaning-data-in-r)</t>
-  </si>
-  <si>
     <t>[Data wrangling](https://r4ds.had.co.nz/wrangle-intro.htmll)</t>
   </si>
   <si>
     <t>[ Data Transformation](https://r4ds.had.co.nz/transform.html)</t>
   </si>
   <si>
-    <t>[DataCamp 4a](https://www.datacamp.com/courses/data-manipulation-with-dplyr-in-r)</t>
-  </si>
-  <si>
-    <t>[DataCamp 4b](https://www.datacamp.com/courses/joining-data-with-dplyr-in-r/)</t>
-  </si>
-  <si>
     <t>[Demystifying RegEx](https://www.sitepoint.com/demystifying-regex-with-practical-examples/)</t>
   </si>
   <si>
     <t>[Strings](https://r4ds.had.co.nz/strings.html#tools)</t>
   </si>
   <si>
-    <t>[DataCamp 5](https://www.datacamp.com/courses/string-manipulation-in-r-with-stringr)</t>
-  </si>
-  <si>
-    <t>[RegexOne](https://regexone.com/)</t>
-  </si>
-  <si>
     <t>DataCamp Course 1</t>
   </si>
   <si>
-    <t>DataCamp Course 2</t>
-  </si>
-  <si>
     <t>[Awesome Visualizations](https://blog.udacity.com/2015/01/15-data-visualizations-will-blow-mind.html)</t>
   </si>
   <si>
     <t>[Data Visualization](https://r4ds.had.co.nz/data-visualisation.html)</t>
   </si>
   <si>
-    <t>[DataCamp 6a](https://www.datacamp.com/courses/data-visualization-with-ggplot2-1)</t>
-  </si>
-  <si>
-    <t>[DataCamp 6b](https://www.datacamp.com/courses/data-visualization-with-ggplot2-2)</t>
-  </si>
-  <si>
     <t>[Statistical Theory](https://learningstatisticswithr.com/book/part-iv-statistical-theory.html)</t>
   </si>
   <si>
     <t>[Learning Statistics with R](https://psyr.djnavarro.net/probability.html)</t>
   </si>
   <si>
-    <t>[DataCamp 7a](https://learn.datacamp.com/courses/introduction-to-statistics-in-r)</t>
-  </si>
-  <si>
-    <t>[DataCamp 7b](https://learn.datacamp.com/skill-tracks/probability-and-distribution-with-r)</t>
-  </si>
-  <si>
-    <t>DataCamp Course 3</t>
-  </si>
-  <si>
-    <t>DataCamp Course 4</t>
-  </si>
-  <si>
-    <t>[DataCamp 7c](https://learn.datacamp.com/skill-tracks/statistical-inference-with-r)</t>
-  </si>
-  <si>
-    <t>[DataCamp 7d](https://learn.datacamp.com/skill-tracks/learn-statistics-with-r)</t>
-  </si>
-  <si>
     <t>[Quick-R ANOVA Guide](https://www.statmethods.net/stats/anova.html)</t>
   </si>
   <si>
@@ -678,12 +630,6 @@
     <t>[Lienar Regression](hhttps://learningstatisticswithr.com/book/regression.html)</t>
   </si>
   <si>
-    <t>[DataCamp 10a](https://www.datacamp.com/courses/correlation-and-regression)</t>
-  </si>
-  <si>
-    <t>[DataCamp 10b](https://www.datacamp.com/courses/multiple-and-logistic-regression)</t>
-  </si>
-  <si>
     <t>[R Notebooks](http://minimaxir.com/2017/06/r-notebooks/)</t>
   </si>
   <si>
@@ -717,15 +663,6 @@
     <t>[Text Mining Intro](https://www.tidytextmining.com/)</t>
   </si>
   <si>
-    <t>[DataCamp 14a](https://www.datacamp.com/courses/intro-to-text-mining-bag-of-words)</t>
-  </si>
-  <si>
-    <t>[DataCamp 14b](https://learn.datacamp.com/courses/introduction-to-text-analysis-in-r)</t>
-  </si>
-  <si>
-    <t>[DataCamp 14c](https://learn.datacamp.com/courses/introduction-to-natural-language-processing-in-r)</t>
-  </si>
-  <si>
     <t>[DataCamp 15](https://learn.datacamp.com/courses/structural-equation-modeling-with-lavaan-in-r)</t>
   </si>
   <si>
@@ -735,9 +672,6 @@
     <t>[SEM Intro](https://bookdown.org/MathiasHarrer/Doing_Meta_Analysis_in_R/sem.html)</t>
   </si>
   <si>
-    <t>[DataCamp14d ](https://www.datacamp.com/courses/sentiment-analysis-in-r-the-tidy-way)</t>
-  </si>
-  <si>
     <t>[Tweets across the United States ](https://learn.datacamp.com/projects/511)</t>
   </si>
   <si>
@@ -747,7 +681,28 @@
     <t>[Leveling in Candy Crush Saga](https://learn.datacamp.com/projects/139)</t>
   </si>
   <si>
-    <t>[DataCamp 1](https://www.datacamp.com/courses/free-introduction-to-r) [DataCamp 1](https://www.datacamp.com/courses/free-introduction-to-r)</t>
+    <t>[DataCamp 3a](https://www.datacamp.com/courses/importing-data-in-r-part-1) [DataCamp 3b](https://www.datacamp.com/courses/cleaning-data-in-r)</t>
+  </si>
+  <si>
+    <t>[DataCamp 4a](https://www.datacamp.com/courses/data-manipulation-with-dplyr-in-r) [DataCamp 4b](https://www.datacamp.com/courses/joining-data-with-dplyr-in-r/)</t>
+  </si>
+  <si>
+    <t>[DataCamp 5](https://www.datacamp.com/courses/string-manipulation-in-r-with-stringr) [RegexOne](https://regexone.com/)</t>
+  </si>
+  <si>
+    <t>[DataCamp 6a](https://www.datacamp.com/courses/data-visualization-with-ggplot2-1) [DataCamp 6b](https://www.datacamp.com/courses/data-visualization-with-ggplot2-2)</t>
+  </si>
+  <si>
+    <t>[DataCamp 7a](https://learn.datacamp.com/courses/introduction-to-statistics-in-r) [DataCamp 7b](https://learn.datacamp.com/skill-tracks/probability-and-distribution-with-r) [DataCamp 7c](https://learn.datacamp.com/skill-tracks/statistical-inference-with-r) [DataCamp 7d](https://learn.datacamp.com/skill-tracks/learn-statistics-with-r)</t>
+  </si>
+  <si>
+    <t>[DataCamp 10a](https://www.datacamp.com/courses/correlation-and-regression) [DataCamp 10b](https://www.datacamp.com/courses/multiple-and-logistic-regression)</t>
+  </si>
+  <si>
+    <t>[DataCamp 14a](https://www.datacamp.com/courses/intro-to-text-mining-bag-of-words) [DataCamp 14b](https://learn.datacamp.com/courses/introduction-to-text-analysis-in-r) [DataCamp 14c](https://learn.datacamp.com/courses/introduction-to-natural-language-processing-in-r) [DataCamp14d ](https://www.datacamp.com/courses/sentiment-analysis-in-r-the-tidy-way)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[DataCamp 2a](https://www.datacamp.com/courses/intermediate-r)    [DataCamp 2b](https://www.datacamp.com/courses/intermediate-r-practice) </t>
   </si>
 </sst>
 </file>
@@ -1095,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1108,11 +1063,10 @@
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
     <col min="4" max="4" width="41.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>138</v>
       </c>
@@ -1126,20 +1080,14 @@
         <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
@@ -1149,16 +1097,15 @@
         <v>143</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1172,10 +1119,10 @@
         <v>162</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1183,16 +1130,13 @@
         <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -1203,16 +1147,13 @@
         <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1224,20 +1165,18 @@
         <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>223</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -1247,16 +1186,13 @@
         <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="119" x14ac:dyDescent="0.2">
@@ -1267,23 +1203,21 @@
         <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1291,39 +1225,32 @@
         <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -1331,19 +1258,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1351,16 +1278,13 @@
         <v>151</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -1371,13 +1295,13 @@
         <v>152</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -1388,13 +1312,13 @@
         <v>153</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -1405,13 +1329,13 @@
         <v>154</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1423,26 +1347,20 @@
         <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>221</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
@@ -1452,13 +1370,13 @@
         <v>156</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1500,9 +1418,6 @@
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G48" s="1"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AE0E29-548C-304B-8008-F85ABE1C9F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD41F659-7EE3-5148-9EB2-E9FEA75728A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,9 +585,6 @@
     <t>[Strings](https://r4ds.had.co.nz/strings.html#tools)</t>
   </si>
   <si>
-    <t>DataCamp Course 1</t>
-  </si>
-  <si>
     <t>[Awesome Visualizations](https://blog.udacity.com/2015/01/15-data-visualizations-will-blow-mind.html)</t>
   </si>
   <si>
@@ -687,6 +684,9 @@
     <t>[DataCamp 4a](https://www.datacamp.com/courses/data-manipulation-with-dplyr-in-r) [DataCamp 4b](https://www.datacamp.com/courses/joining-data-with-dplyr-in-r/)</t>
   </si>
   <si>
+    <t xml:space="preserve">[DataCamp 2a](https://www.datacamp.com/courses/intermediate-r) [DataCamp 2b](https://www.datacamp.com/courses/intermediate-r-practice) </t>
+  </si>
+  <si>
     <t>[DataCamp 5](https://www.datacamp.com/courses/string-manipulation-in-r-with-stringr) [RegexOne](https://regexone.com/)</t>
   </si>
   <si>
@@ -702,7 +702,7 @@
     <t>[DataCamp 14a](https://www.datacamp.com/courses/intro-to-text-mining-bag-of-words) [DataCamp 14b](https://learn.datacamp.com/courses/introduction-to-text-analysis-in-r) [DataCamp 14c](https://learn.datacamp.com/courses/introduction-to-natural-language-processing-in-r) [DataCamp14d ](https://www.datacamp.com/courses/sentiment-analysis-in-r-the-tidy-way)</t>
   </si>
   <si>
-    <t xml:space="preserve">[DataCamp 2a](https://www.datacamp.com/courses/intermediate-r)    [DataCamp 2b](https://www.datacamp.com/courses/intermediate-r-practice) </t>
+    <t>DataCamp Courses</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1080,7 +1080,7 @@
         <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>142</v>
@@ -1136,7 +1136,7 @@
         <v>161</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -1153,7 +1153,7 @@
         <v>165</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1171,10 +1171,10 @@
         <v>167</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -1203,16 +1203,16 @@
         <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
@@ -1225,10 +1225,10 @@
         <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>206</v>
@@ -1241,16 +1241,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -1258,16 +1258,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -1278,10 +1278,10 @@
         <v>151</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>207</v>
@@ -1295,13 +1295,13 @@
         <v>152</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -1312,13 +1312,13 @@
         <v>153</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -1329,13 +1329,13 @@
         <v>154</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1347,16 +1347,16 @@
         <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1370,13 +1370,13 @@
         <v>156</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD41F659-7EE3-5148-9EB2-E9FEA75728A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8666BE2-BA4F-084C-BA0B-7C2A0D0346E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="212">
   <si>
     <t>Week</t>
   </si>
@@ -703,6 +703,12 @@
   </si>
   <si>
     <t>DataCamp Courses</t>
+  </si>
+  <si>
+    <t>Exercises</t>
+  </si>
+  <si>
+    <t>R Code</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1059,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1085,9 +1091,15 @@
       <c r="F1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="5">

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8666BE2-BA4F-084C-BA0B-7C2A0D0346E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3823391-08CC-3C4E-B8E3-4244EFBE4DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="222">
   <si>
     <t>Week</t>
   </si>
@@ -537,9 +537,6 @@
     <t>Web Scraping and APIs</t>
   </si>
   <si>
-    <t>Machine Learning</t>
-  </si>
-  <si>
     <t xml:space="preserve">Natural Language Processing </t>
   </si>
   <si>
@@ -576,9 +573,6 @@
     <t>[Data wrangling](https://r4ds.had.co.nz/wrangle-intro.htmll)</t>
   </si>
   <si>
-    <t>[ Data Transformation](https://r4ds.had.co.nz/transform.html)</t>
-  </si>
-  <si>
     <t>[Demystifying RegEx](https://www.sitepoint.com/demystifying-regex-with-practical-examples/)</t>
   </si>
   <si>
@@ -651,9 +645,6 @@
     <t>[Machine Learning Intermediate](https://rafalab.github.io/dsbook/introduction-to-machine-learning.html)</t>
   </si>
   <si>
-    <t>[DataCamp 13](https://www.datacamp.com/courses/machine-learning-toolbox)</t>
-  </si>
-  <si>
     <t>[NLP Intro](https://iksinc.wordpress.com/2015/04/13/words-as-vectors/)</t>
   </si>
   <si>
@@ -709,16 +700,63 @@
   </si>
   <si>
     <t>R Code</t>
+  </si>
+  <si>
+    <t>[Trends in Maryland Crime Rates](https://learn.datacamp.com/projects/673)</t>
+  </si>
+  <si>
+    <t>[South Park Text Analysis ](https://learn.datacamp.com/projects/561)</t>
+  </si>
+  <si>
+    <t>[Visualizing Musical Data](https://learn.datacamp.com/projects/78)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine Learning </t>
+  </si>
+  <si>
+    <t>[DataCamp 13a](https://www.datacamp.com/courses/machine-learning-toolbox)[DataCamp 13b](https://learn.datacamp.com/courses/supervised-learning-in-r-classification)</t>
+  </si>
+  <si>
+    <t>[Predict Taxi Farers with Random Walks](https://learn.datacamp.com/projects/496)</t>
+  </si>
+  <si>
+    <t>[Text Mining America's Toughest Game Show](https://learn.datacamp.com/projects/796)</t>
+  </si>
+  <si>
+    <t>[Data Transformation](https://r4ds.had.co.nz/transform.html)</t>
+  </si>
+  <si>
+    <t>[Phyllotaxis: Draw Flowers Using Mathematics](https://learn.datacamp.com/projects/62)</t>
+  </si>
+  <si>
+    <t>[Who Is Drunk and When in Ames, Iowa?](https://learn.datacamp.com/projects/208)</t>
+  </si>
+  <si>
+    <t>[Data Science for Social Good: Crime Study](https://learn.datacamp.com/projects/614)</t>
+  </si>
+  <si>
+    <t>[A Visual History of Nobel Prize Winners](https://learn.datacamp.com/projects/309)</t>
+  </si>
+  <si>
+    <t>[Gender Bias in Graduate Admissions](https://learn.datacamp.com/projects/567)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -741,10 +779,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -764,8 +803,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1058,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,7 +1129,7 @@
         <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>142</v>
@@ -1095,10 +1138,10 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1109,10 +1152,10 @@
         <v>143</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -1125,13 +1168,13 @@
         <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -1142,16 +1185,16 @@
         <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1159,13 +1202,16 @@
         <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1177,20 +1223,20 @@
         <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1198,13 +1244,16 @@
         <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="119" x14ac:dyDescent="0.2">
@@ -1215,16 +1264,16 @@
         <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
@@ -1237,52 +1286,61 @@
         <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1290,16 +1348,19 @@
         <v>151</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1307,16 +1368,19 @@
         <v>152</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="F13" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1324,30 +1388,36 @@
         <v>153</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1356,39 +1426,42 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1432,6 +1505,9 @@
       <c r="G48" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1" display="https://learn.datacamp.com/projects/673" xr:uid="{D338DF12-88CA-E64D-A19E-020F7332BB48}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3823391-08CC-3C4E-B8E3-4244EFBE4DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F358F92-A012-1345-829F-ECD33937F188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="220">
   <si>
     <t>Week</t>
   </si>
@@ -495,12 +495,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>Reading Basic</t>
-  </si>
-  <si>
-    <t>Reading Advanced</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
@@ -696,12 +690,6 @@
     <t>DataCamp Courses</t>
   </si>
   <si>
-    <t>Exercises</t>
-  </si>
-  <si>
-    <t>R Code</t>
-  </si>
-  <si>
     <t>[Trends in Maryland Crime Rates](https://learn.datacamp.com/projects/673)</t>
   </si>
   <si>
@@ -739,6 +727,12 @@
   </si>
   <si>
     <t>[Gender Bias in Graduate Admissions](https://learn.datacamp.com/projects/567)</t>
+  </si>
+  <si>
+    <t>Reading 2</t>
+  </si>
+  <si>
+    <t>Reading 1</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1096,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,39 +1117,33 @@
         <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>208</v>
-      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -1165,16 +1153,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -1182,16 +1170,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="153" x14ac:dyDescent="0.2">
@@ -1199,19 +1187,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1220,19 +1208,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -1241,19 +1229,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="119" x14ac:dyDescent="0.2">
@@ -1261,19 +1249,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
@@ -1283,19 +1271,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1305,19 +1293,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -1325,19 +1313,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -1345,19 +1333,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -1365,19 +1353,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="170" x14ac:dyDescent="0.2">
@@ -1385,19 +1373,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="153" x14ac:dyDescent="0.2">
@@ -1405,19 +1393,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1426,19 +1414,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1449,19 +1437,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F358F92-A012-1345-829F-ECD33937F188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529AF69E-6429-DF42-985E-D3778C4270F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -705,9 +705,6 @@
     <t>[DataCamp 13a](https://www.datacamp.com/courses/machine-learning-toolbox)[DataCamp 13b](https://learn.datacamp.com/courses/supervised-learning-in-r-classification)</t>
   </si>
   <si>
-    <t>[Predict Taxi Farers with Random Walks](https://learn.datacamp.com/projects/496)</t>
-  </si>
-  <si>
     <t>[Text Mining America's Toughest Game Show](https://learn.datacamp.com/projects/796)</t>
   </si>
   <si>
@@ -733,6 +730,9 @@
   </si>
   <si>
     <t>Reading 1</t>
+  </si>
+  <si>
+    <t>[Predict Taxi Fares with Random Walks](https://learn.datacamp.com/projects/496)</t>
   </si>
 </sst>
 </file>
@@ -1095,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1117,10 +1117,10 @@
         <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>204</v>
@@ -1199,7 +1199,7 @@
         <v>196</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1214,7 +1214,7 @@
         <v>163</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>197</v>
@@ -1283,7 +1283,7 @@
         <v>201</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1305,7 +1305,7 @@
         <v>176</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
         <v>177</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -1365,7 +1365,7 @@
         <v>182</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="170" x14ac:dyDescent="0.2">
@@ -1385,7 +1385,7 @@
         <v>185</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="153" x14ac:dyDescent="0.2">
@@ -1405,7 +1405,7 @@
         <v>209</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G15" s="1"/>
     </row>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529AF69E-6429-DF42-985E-D3778C4270F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84043AC5-22B7-5B45-B81B-8631A83F2E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84043AC5-22B7-5B45-B81B-8631A83F2E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF2B045-4668-774D-9B3D-F0028B6A92F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="223">
   <si>
     <t>Week</t>
   </si>
@@ -733,6 +733,15 @@
   </si>
   <si>
     <t>[Predict Taxi Fares with Random Walks](https://learn.datacamp.com/projects/496)</t>
+  </si>
+  <si>
+    <t>Lectures</t>
+  </si>
+  <si>
+    <t>Lab materials</t>
+  </si>
+  <si>
+    <t>[Lect 1]()</t>
   </si>
 </sst>
 </file>
@@ -1095,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1109,7 +1118,7 @@
     <col min="7" max="7" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>138</v>
       </c>
@@ -1128,8 +1137,12 @@
       <c r="F1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1146,7 +1159,9 @@
         <v>156</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="6">

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF2B045-4668-774D-9B3D-F0028B6A92F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58BDBCF-BF24-C143-94CC-64033C8E9083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,7 +741,7 @@
     <t>Lab materials</t>
   </si>
   <si>
-    <t>[Lect 1]()</t>
+    <t>[Lect 1](https://fuenal.github.io/dataism/static/pdf/Chapter01.pdf)</t>
   </si>
 </sst>
 </file>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58BDBCF-BF24-C143-94CC-64033C8E9083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCE6A4A-70BE-E745-BE38-84C9D7565ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="232">
   <si>
     <t>Week</t>
   </si>
@@ -741,7 +741,34 @@
     <t>Lab materials</t>
   </si>
   <si>
-    <t>[Lect 1](https://fuenal.github.io/dataism/static/pdf/Chapter01.pdf)</t>
+    <t>[Lect 0](https://fuenal.github.io/dataism/static/pdf/Chapter00.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 1](https://fuenal.github.io/dataism/static/pdf/Chapter00.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 15](https://fuenal.github.io/dataism/static/pdf/Chapter15.pdf) [Lect 16](https://fuenal.github.io/dataism/static/pdf/Chapter15.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 12](https://fuenal.github.io/dataism/static/pdf/Chapter12.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 13](https://fuenal.github.io/dataism/static/pdf/Chapter12.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 2](https://fuenal.github.io/dataism/static/pdf/Chapter03.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 4](https://fuenal.github.io/dataism/static/pdf/Chapter00.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 7](https://fuenal.github.io/dataism/static/pdf/Chapter07.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 8](https://fuenal.github.io/dataism/static/pdf/Chapter01.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 16](https://fuenal.github.io/dataism/static/pdf/Chapter19.pdf)</t>
   </si>
 </sst>
 </file>
@@ -1104,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1179,6 +1206,9 @@
       <c r="E3" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
@@ -1196,6 +1226,9 @@
       <c r="E4" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -1216,7 +1249,9 @@
       <c r="F5" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="3" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -1278,7 +1313,9 @@
       <c r="F8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="153" x14ac:dyDescent="0.2">
@@ -1300,7 +1337,9 @@
       <c r="F9" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="170" x14ac:dyDescent="0.2">
@@ -1322,6 +1361,9 @@
       <c r="F10" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -1342,6 +1384,9 @@
       <c r="F11" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="G11" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
@@ -1362,6 +1407,9 @@
       <c r="F12" s="7" t="s">
         <v>205</v>
       </c>
+      <c r="G12" s="3" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
@@ -1465,6 +1513,9 @@
       </c>
       <c r="F17" s="1" t="s">
         <v>206</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCE6A4A-70BE-E745-BE38-84C9D7565ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E688BEE-C73C-0442-AD7D-F6E11C661844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E688BEE-C73C-0442-AD7D-F6E11C661844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FED69E-6E60-0649-93EB-18903588A789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,21 +741,9 @@
     <t>Lab materials</t>
   </si>
   <si>
-    <t>[Lect 0](https://fuenal.github.io/dataism/static/pdf/Chapter00.pdf)</t>
-  </si>
-  <si>
     <t>[Lect 1](https://fuenal.github.io/dataism/static/pdf/Chapter00.pdf)</t>
   </si>
   <si>
-    <t>[Lect 15](https://fuenal.github.io/dataism/static/pdf/Chapter15.pdf) [Lect 16](https://fuenal.github.io/dataism/static/pdf/Chapter15.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 12](https://fuenal.github.io/dataism/static/pdf/Chapter12.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 13](https://fuenal.github.io/dataism/static/pdf/Chapter12.pdf)</t>
-  </si>
-  <si>
     <t>[Lect 2](https://fuenal.github.io/dataism/static/pdf/Chapter03.pdf)</t>
   </si>
   <si>
@@ -769,6 +757,18 @@
   </si>
   <si>
     <t>[Lect 16](https://fuenal.github.io/dataism/static/pdf/Chapter19.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 11a](https://fuenal.github.io/dataism/static/pdf/Chapter15.pdf) [Lect 11b](https://fuenal.github.io/dataism/static/pdf/Chapter16.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 10](https://fuenal.github.io/dataism/static/pdf/Chapter12.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 9](https://fuenal.github.io/dataism/static/pdf/Chapter12.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect Intro](https://fuenal.github.io/dataism/static/pdf/Chapter00.pdf)</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -1207,7 +1207,7 @@
         <v>155</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -1227,7 +1227,7 @@
         <v>198</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="153" x14ac:dyDescent="0.2">
@@ -1250,7 +1250,7 @@
         <v>213</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -1314,7 +1314,7 @@
         <v>194</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -1338,7 +1338,7 @@
         <v>212</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1362,7 +1362,7 @@
         <v>214</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -1385,7 +1385,7 @@
         <v>215</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -1408,7 +1408,7 @@
         <v>205</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -1515,7 +1515,7 @@
         <v>206</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FED69E-6E60-0649-93EB-18903588A789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84B942F-A3ED-1845-A395-05584222651B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,15 +741,9 @@
     <t>Lab materials</t>
   </si>
   <si>
-    <t>[Lect 1](https://fuenal.github.io/dataism/static/pdf/Chapter00.pdf)</t>
-  </si>
-  <si>
     <t>[Lect 2](https://fuenal.github.io/dataism/static/pdf/Chapter03.pdf)</t>
   </si>
   <si>
-    <t>[Lect 4](https://fuenal.github.io/dataism/static/pdf/Chapter00.pdf)</t>
-  </si>
-  <si>
     <t>[Lect 7](https://fuenal.github.io/dataism/static/pdf/Chapter07.pdf)</t>
   </si>
   <si>
@@ -768,7 +762,13 @@
     <t>[Lect 9](https://fuenal.github.io/dataism/static/pdf/Chapter12.pdf)</t>
   </si>
   <si>
-    <t>[Lect Intro](https://fuenal.github.io/dataism/static/pdf/Chapter00.pdf)</t>
+    <t>[Lect Intro](https://fuenal.github.io/dataism/static/pdf/ChapterA.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 1](https://fuenal.github.io/dataism/static/pdf/ChapterA.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 4](https://fuenal.github.io/dataism/static/pdf/ChapterA.pdf)</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -1207,7 +1207,7 @@
         <v>155</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -1227,7 +1227,7 @@
         <v>198</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="153" x14ac:dyDescent="0.2">
@@ -1250,7 +1250,7 @@
         <v>213</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -1314,7 +1314,7 @@
         <v>194</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -1338,7 +1338,7 @@
         <v>212</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1362,7 +1362,7 @@
         <v>214</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -1385,7 +1385,7 @@
         <v>215</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -1408,7 +1408,7 @@
         <v>205</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -1515,7 +1515,7 @@
         <v>206</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84B942F-A3ED-1845-A395-05584222651B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C1C063-2858-9A41-A489-1181DD6E12BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,7 +741,7 @@
     <t>Lab materials</t>
   </si>
   <si>
-    <t>[Lect 2](https://fuenal.github.io/dataism/static/pdf/Chapter03.pdf)</t>
+    <t>[Lect 3](https://fuenal.github.io/dataism/static/pdf/Chapter03.pdf)</t>
   </si>
   <si>
     <t>[Lect 7](https://fuenal.github.io/dataism/static/pdf/Chapter07.pdf)</t>
@@ -762,13 +762,13 @@
     <t>[Lect 9](https://fuenal.github.io/dataism/static/pdf/Chapter12.pdf)</t>
   </si>
   <si>
-    <t>[Lect Intro](https://fuenal.github.io/dataism/static/pdf/ChapterA.pdf)</t>
-  </si>
-  <si>
     <t>[Lect 1](https://fuenal.github.io/dataism/static/pdf/ChapterA.pdf)</t>
   </si>
   <si>
     <t>[Lect 4](https://fuenal.github.io/dataism/static/pdf/ChapterA.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 2](https://fuenal.github.io/dataism/static/pdf/ChapterA.pdf)</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1207,7 @@
         <v>155</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -1250,7 +1250,7 @@
         <v>213</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="136" x14ac:dyDescent="0.2">

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C1C063-2858-9A41-A489-1181DD6E12BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A4DCAF-0EA0-8447-9600-4D4D9F2BF394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="238">
   <si>
     <t>Week</t>
   </si>
@@ -769,13 +769,31 @@
   </si>
   <si>
     <t>[Lect 2](https://fuenal.github.io/dataism/static/pdf/ChapterA.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 5](https://fuenal.github.io/dataism/static/pdf/Chapter5a.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 6](https://fuenal.github.io/dataism/static/pdf/Chapter6a.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 12](https://fuenal.github.io/dataism/static/pdf/Chapter12a.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 13](https://fuenal.github.io/dataism/static/pdf/Chapter13a.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 14](https://fuenal.github.io/dataism/static/pdf/Chapter14a.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 15](https://fuenal.github.io/dataism/static/pdf/Chapter15a.pdf)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -787,6 +805,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -813,7 +838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -835,6 +860,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1131,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1272,6 +1300,9 @@
       <c r="F6" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="119" x14ac:dyDescent="0.2">
@@ -1293,6 +1324,9 @@
       <c r="F7" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
@@ -1430,6 +1464,9 @@
       <c r="F13" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="G13" s="8" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
@@ -1450,6 +1487,9 @@
       <c r="F14" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="G14" s="8" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
@@ -1470,7 +1510,9 @@
       <c r="F15" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="8" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -1491,7 +1533,9 @@
       <c r="F16" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A4DCAF-0EA0-8447-9600-4D4D9F2BF394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48272D5-EEC9-1340-AD72-17EE30DEC2A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48272D5-EEC9-1340-AD72-17EE30DEC2A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254D4E2B-0DA7-2C4E-8BC9-AAFFBA982056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -771,12 +771,6 @@
     <t>[Lect 2](https://fuenal.github.io/dataism/static/pdf/ChapterA.pdf)</t>
   </si>
   <si>
-    <t>[Lect 5](https://fuenal.github.io/dataism/static/pdf/Chapter5a.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 6](https://fuenal.github.io/dataism/static/pdf/Chapter6a.pdf)</t>
-  </si>
-  <si>
     <t>[Lect 12](https://fuenal.github.io/dataism/static/pdf/Chapter12a.pdf)</t>
   </si>
   <si>
@@ -787,6 +781,12 @@
   </si>
   <si>
     <t>[Lect 15](https://fuenal.github.io/dataism/static/pdf/Chapter15a.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 5](https://fuenal.github.io/dataism/static/pdf/Chapter05a.pdf)</t>
+  </si>
+  <si>
+    <t>[Lect 6](https://fuenal.github.io/dataism/static/pdf/Chapter06a.pdf)</t>
   </si>
 </sst>
 </file>
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1301,7 +1301,7 @@
         <v>195</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -1325,7 +1325,7 @@
         <v>207</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="119" x14ac:dyDescent="0.2">
@@ -1465,7 +1465,7 @@
         <v>216</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="170" x14ac:dyDescent="0.2">
@@ -1488,7 +1488,7 @@
         <v>210</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="153" x14ac:dyDescent="0.2">
@@ -1511,7 +1511,7 @@
         <v>219</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="170" x14ac:dyDescent="0.2">
@@ -1534,7 +1534,7 @@
         <v>193</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254D4E2B-0DA7-2C4E-8BC9-AAFFBA982056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CEF90E-9DAF-7743-BDB5-9E03219A3C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CEF90E-9DAF-7743-BDB5-9E03219A3C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3E2C83-BA7E-7641-A2FE-4714117F1621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="33200" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="29380" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Lectures" localSheetId="0">Sheet1!$A$1:$F$51</definedName>
+    <definedName name="Lectures" localSheetId="0">Sheet1!$A$1:$E$52</definedName>
     <definedName name="Lectures" localSheetId="1">'Sheet1 (2)'!$A$1:$E$50</definedName>
     <definedName name="Lectures" localSheetId="2">'Sheet1 (3)'!$A$1:$F$50</definedName>
   </definedNames>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="197">
   <si>
     <t>Week</t>
   </si>
@@ -489,311 +489,188 @@
     <t>Flex</t>
   </si>
   <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction and Software </t>
-  </si>
-  <si>
-    <t>Data Types and Basic Variable Manipulation</t>
-  </si>
-  <si>
-    <t>Conditionals, Loops, and Apply</t>
-  </si>
-  <si>
-    <t>Data Import and Formatting</t>
-  </si>
-  <si>
-    <t>Data Manipulation</t>
-  </si>
-  <si>
-    <t>String Manipulation</t>
-  </si>
-  <si>
-    <t>Data Visualization</t>
-  </si>
-  <si>
-    <t>Introduction to Statistics</t>
-  </si>
-  <si>
-    <t>General and Generalized Linear Model</t>
-  </si>
-  <si>
-    <t>Generating Reports and Web Apps</t>
-  </si>
-  <si>
-    <t>Web Scraping and APIs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural Language Processing </t>
-  </si>
-  <si>
-    <t>Structural Equation Programming</t>
-  </si>
-  <si>
-    <t>[Designing Projects](https://nicercode.github.io/blog/2013-04-05-projects/)</t>
-  </si>
-  <si>
-    <t>[DataCamp 1](https://www.datacamp.com/courses/free-introduction-to-r)</t>
-  </si>
-  <si>
-    <t>[Introduction](https://r4ds.had.co.nz/introduction.html)</t>
-  </si>
-  <si>
-    <t>[Using apply, sapply, lapply in R](https://www.r-bloggers.com/using-apply-sapply-lapply-in-r/)</t>
-  </si>
-  <si>
-    <t>[Programming basics](https://rafalab.github.io/dsbook/programming-basics.html)</t>
-  </si>
-  <si>
     <t>[R basics](https://rafalab.github.io/dsbook/r-basics.html)</t>
   </si>
   <si>
     <t>[Getting started with R](https://rafalab.github.io/dsbook/getting-started.html)</t>
   </si>
   <si>
-    <t>[data.table vs dplyr](https://stackoverflow.com/questions/21435339/data-table-vs-dplyr-can-one-do-something-well-the-other-cant-or-does-poorly)</t>
-  </si>
-  <si>
-    <t>[The tidyverse](https://rafalab.github.io/dsbook/tidyverse.html)</t>
-  </si>
-  <si>
-    <t>[Data wrangling](https://r4ds.had.co.nz/wrangle-intro.htmll)</t>
-  </si>
-  <si>
-    <t>[Demystifying RegEx](https://www.sitepoint.com/demystifying-regex-with-practical-examples/)</t>
-  </si>
-  <si>
-    <t>[Strings](https://r4ds.had.co.nz/strings.html#tools)</t>
-  </si>
-  <si>
-    <t>[Awesome Visualizations](https://blog.udacity.com/2015/01/15-data-visualizations-will-blow-mind.html)</t>
-  </si>
-  <si>
-    <t>[Data Visualization](https://r4ds.had.co.nz/data-visualisation.html)</t>
-  </si>
-  <si>
-    <t>[Statistical Theory](https://learningstatisticswithr.com/book/part-iv-statistical-theory.html)</t>
-  </si>
-  <si>
-    <t>[Learning Statistics with R](https://psyr.djnavarro.net/probability.html)</t>
-  </si>
-  <si>
-    <t>[Quick-R ANOVA Guide](https://www.statmethods.net/stats/anova.html)</t>
-  </si>
-  <si>
-    <t>Factorial ANOVA</t>
-  </si>
-  <si>
-    <t>[Factorial ANOVA Guide](http://personality-project.org/r/r.guide/r.anova.html)</t>
-  </si>
-  <si>
-    <t>[One-Way ANOVA](https://learningstatisticswithr.com/book/anova.html)</t>
-  </si>
-  <si>
-    <t>[Factorial ANOVA](https://learningstatisticswithr.com/book/anova2.html)</t>
-  </si>
-  <si>
-    <t>ANOVA</t>
-  </si>
-  <si>
-    <t>[DataCamp 8](https://www.datacamp.com/courses/analysis-of-variance-anova)</t>
-  </si>
-  <si>
-    <t>[DataCamp 9](https://www.datacamp.com/courses/repeated-measures-anova)</t>
-  </si>
-  <si>
-    <t>[Linear Modeling](https://www.theanalysisfactor.com/why-anova-and-linear-regression-are-the-same-analysis/)</t>
-  </si>
-  <si>
-    <t>[Lienar Regression](hhttps://learningstatisticswithr.com/book/regression.html)</t>
-  </si>
-  <si>
-    <t>[R Notebooks](http://minimaxir.com/2017/06/r-notebooks/)</t>
-  </si>
-  <si>
-    <t>[Intro R Markdown](https://r4ds.had.co.nz/r-markdown.html)</t>
-  </si>
-  <si>
-    <t>[DataCamp 11](https://www.datacamp.com/courses/communicating-with-data-in-the-tidyverse)</t>
-  </si>
-  <si>
-    <t>[Web Scraping](http://neoacademic.com/2016/06/15/collecting-unstructured-data-internet-guide-psychologists/)</t>
-  </si>
-  <si>
-    <t>[Web Scraping advanced](https://rafalab.github.io/dsbook/web-scraping.html)</t>
-  </si>
-  <si>
-    <t>[DataCamp 12](https://www.datacamp.com/courses/working-with-web-data-in-r)</t>
-  </si>
-  <si>
-    <t>[Machine Learning Intro](https://www.kdnuggets.com/2016/11/machine-learning-vs-statistics.html)</t>
-  </si>
-  <si>
-    <t>[Machine Learning Intermediate](https://rafalab.github.io/dsbook/introduction-to-machine-learning.html)</t>
-  </si>
-  <si>
-    <t>[NLP Intro](https://iksinc.wordpress.com/2015/04/13/words-as-vectors/)</t>
-  </si>
-  <si>
-    <t>[Text Mining Intro](https://www.tidytextmining.com/)</t>
-  </si>
-  <si>
-    <t>[DataCamp 15](https://learn.datacamp.com/courses/structural-equation-modeling-with-lavaan-in-r)</t>
-  </si>
-  <si>
-    <t>[SEM](https://lavaan.ugent.be/tutorial/sem.html)</t>
-  </si>
-  <si>
-    <t>[SEM Intro](https://bookdown.org/MathiasHarrer/Doing_Meta_Analysis_in_R/sem.html)</t>
-  </si>
-  <si>
-    <t>[Tweets across the United States ](https://learn.datacamp.com/projects/511)</t>
-  </si>
-  <si>
-    <t>[Visualizing COVID-19](https://learn.datacamp.com/projects/870)</t>
-  </si>
-  <si>
-    <t>[Leveling in Candy Crush Saga](https://learn.datacamp.com/projects/139)</t>
-  </si>
-  <si>
-    <t>[DataCamp 3a](https://www.datacamp.com/courses/importing-data-in-r-part-1) [DataCamp 3b](https://www.datacamp.com/courses/cleaning-data-in-r)</t>
-  </si>
-  <si>
-    <t>[DataCamp 4a](https://www.datacamp.com/courses/data-manipulation-with-dplyr-in-r) [DataCamp 4b](https://www.datacamp.com/courses/joining-data-with-dplyr-in-r/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[DataCamp 2a](https://www.datacamp.com/courses/intermediate-r) [DataCamp 2b](https://www.datacamp.com/courses/intermediate-r-practice) </t>
-  </si>
-  <si>
-    <t>[DataCamp 5](https://www.datacamp.com/courses/string-manipulation-in-r-with-stringr) [RegexOne](https://regexone.com/)</t>
-  </si>
-  <si>
-    <t>[DataCamp 6a](https://www.datacamp.com/courses/data-visualization-with-ggplot2-1) [DataCamp 6b](https://www.datacamp.com/courses/data-visualization-with-ggplot2-2)</t>
-  </si>
-  <si>
-    <t>[DataCamp 7a](https://learn.datacamp.com/courses/introduction-to-statistics-in-r) [DataCamp 7b](https://learn.datacamp.com/skill-tracks/probability-and-distribution-with-r) [DataCamp 7c](https://learn.datacamp.com/skill-tracks/statistical-inference-with-r) [DataCamp 7d](https://learn.datacamp.com/skill-tracks/learn-statistics-with-r)</t>
-  </si>
-  <si>
-    <t>[DataCamp 10a](https://www.datacamp.com/courses/correlation-and-regression) [DataCamp 10b](https://www.datacamp.com/courses/multiple-and-logistic-regression)</t>
-  </si>
-  <si>
-    <t>[DataCamp 14a](https://www.datacamp.com/courses/intro-to-text-mining-bag-of-words) [DataCamp 14b](https://learn.datacamp.com/courses/introduction-to-text-analysis-in-r) [DataCamp 14c](https://learn.datacamp.com/courses/introduction-to-natural-language-processing-in-r) [DataCamp14d ](https://www.datacamp.com/courses/sentiment-analysis-in-r-the-tidy-way)</t>
-  </si>
-  <si>
-    <t>DataCamp Courses</t>
-  </si>
-  <si>
-    <t>[Trends in Maryland Crime Rates](https://learn.datacamp.com/projects/673)</t>
-  </si>
-  <si>
-    <t>[South Park Text Analysis ](https://learn.datacamp.com/projects/561)</t>
-  </si>
-  <si>
-    <t>[Visualizing Musical Data](https://learn.datacamp.com/projects/78)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine Learning </t>
-  </si>
-  <si>
-    <t>[DataCamp 13a](https://www.datacamp.com/courses/machine-learning-toolbox)[DataCamp 13b](https://learn.datacamp.com/courses/supervised-learning-in-r-classification)</t>
-  </si>
-  <si>
-    <t>[Text Mining America's Toughest Game Show](https://learn.datacamp.com/projects/796)</t>
-  </si>
-  <si>
-    <t>[Data Transformation](https://r4ds.had.co.nz/transform.html)</t>
-  </si>
-  <si>
-    <t>[Phyllotaxis: Draw Flowers Using Mathematics](https://learn.datacamp.com/projects/62)</t>
-  </si>
-  <si>
-    <t>[Who Is Drunk and When in Ames, Iowa?](https://learn.datacamp.com/projects/208)</t>
-  </si>
-  <si>
-    <t>[Data Science for Social Good: Crime Study](https://learn.datacamp.com/projects/614)</t>
-  </si>
-  <si>
-    <t>[A Visual History of Nobel Prize Winners](https://learn.datacamp.com/projects/309)</t>
-  </si>
-  <si>
-    <t>[Gender Bias in Graduate Admissions](https://learn.datacamp.com/projects/567)</t>
-  </si>
-  <si>
-    <t>Reading 2</t>
-  </si>
-  <si>
-    <t>Reading 1</t>
-  </si>
-  <si>
-    <t>[Predict Taxi Fares with Random Walks](https://learn.datacamp.com/projects/496)</t>
-  </si>
-  <si>
-    <t>Lectures</t>
-  </si>
-  <si>
-    <t>Lab materials</t>
-  </si>
-  <si>
-    <t>[Lect 3](https://fuenal.github.io/dataism/static/pdf/Chapter03.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 7](https://fuenal.github.io/dataism/static/pdf/Chapter07.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 8](https://fuenal.github.io/dataism/static/pdf/Chapter01.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 16](https://fuenal.github.io/dataism/static/pdf/Chapter19.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 11a](https://fuenal.github.io/dataism/static/pdf/Chapter15.pdf) [Lect 11b](https://fuenal.github.io/dataism/static/pdf/Chapter16.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 10](https://fuenal.github.io/dataism/static/pdf/Chapter12.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 9](https://fuenal.github.io/dataism/static/pdf/Chapter12.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 1](https://fuenal.github.io/dataism/static/pdf/ChapterA.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 4](https://fuenal.github.io/dataism/static/pdf/ChapterA.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 2](https://fuenal.github.io/dataism/static/pdf/ChapterA.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 12](https://fuenal.github.io/dataism/static/pdf/Chapter12a.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 13](https://fuenal.github.io/dataism/static/pdf/Chapter13a.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 14](https://fuenal.github.io/dataism/static/pdf/Chapter14a.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 15](https://fuenal.github.io/dataism/static/pdf/Chapter15a.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 5](https://fuenal.github.io/dataism/static/pdf/Chapter05a.pdf)</t>
-  </si>
-  <si>
-    <t>[Lect 6](https://fuenal.github.io/dataism/static/pdf/Chapter06a.pdf)</t>
+    <t>[Visualization](https://rafalab.github.io/dsbook/introduction-to-data-visualization.html)</t>
+  </si>
+  <si>
+    <t>[Probability](https://rafalab.github.io/dsbook/introduction-to-statistics-with-r.html)</t>
+  </si>
+  <si>
+    <t>[Statistical Inference](https://rafalab.github.io/dsbook/inference.html)</t>
+  </si>
+  <si>
+    <t>[Productivity Tools](https://rafalab.github.io/dsbook/introduction-to-productivity-tools.html)</t>
+  </si>
+  <si>
+    <t>[Data Wrangling](https://rafalab.github.io/dsbook/introduction-to-data-wrangling.html)</t>
+  </si>
+  <si>
+    <t>[Regression](https://rafalab.github.io/dsbook/regression.html)</t>
+  </si>
+  <si>
+    <t>[Machine Learning](https://rafalab.github.io/dsbook/introduction-to-machine-learning.html)</t>
+  </si>
+  <si>
+    <t>Available by semester start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction &amp; Software </t>
+  </si>
+  <si>
+    <t>R Basics</t>
+  </si>
+  <si>
+    <t>Data Visualizations</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Inference &amp; Modeling</t>
+  </si>
+  <si>
+    <t>Productivity Tools</t>
+  </si>
+  <si>
+    <t>Wrangling</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>[**PROJECT 1:** Visualizing COVID-19](https://datacamp.com/projects/870)  [&lt;br&gt;**PROJECT 2:** Phyllotaxis: Draw Flowers Using Mathematics](https://datacamp.com/projects/62)</t>
+  </si>
+  <si>
+    <t>[**PROJECT 1:** Kidney Stones and Simpson's Paradox](https://datacamp.com/projects/697)  [&lt;br&gt;**PROJECT 2:** Health Survey Data Analysis of BMI](https://datacamp.com/projects/677)</t>
+  </si>
+  <si>
+    <t>[**PROJECT 1:** What Makes a Pokémon Legendary?](https://datacamp.com/projects/712)  [&lt;br&gt;**PROJECT 2:** Predict Taxi Fares with Random Forests](https://datacamp.com/projects/496)  [&lt;br&gt;**PROJECT 3:** The Impact of Climate Change on Birds](https://datacamp.com/projects/664)</t>
+  </si>
+  <si>
+    <t>[**PROJECT 1:** Visualizing Musical Data](https://datacamp.com/projects/78)  [&lt;br&gt;**PROJECT 2:** A Text Analysis of Trump's Tweets](https://datacamp.com/projects/511)  [&lt;br&gt;**PROJECT 3:** Going Down to South Park: A Text Analysis](https://datacamp.com/projects/561)</t>
+  </si>
+  <si>
+    <t>[**PROJECT 1:** Leveling in Candy Crush Saga](https://datacamp.com/projects/139)  [&lt;br&gt;**PROJECT 2:** Modeling the Volatility of US Bond Yields](https://datacamp.com/projects/738)</t>
+  </si>
+  <si>
+    <t>[**Project:** Trends in Maryland Crime Rates](https://datacamp.com/projects/673)</t>
+  </si>
+  <si>
+    <t>DataCamp Project</t>
+  </si>
+  <si>
+    <t>**Module**</t>
+  </si>
+  <si>
+    <t>**Topic**</t>
+  </si>
+  <si>
+    <t>**DSbook Chapter**</t>
+  </si>
+  <si>
+    <t>**Assessment**</t>
+  </si>
+  <si>
+    <t>**DataCamp Practice**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**1.** </t>
+  </si>
+  <si>
+    <t>**2.**</t>
+  </si>
+  <si>
+    <t>**3.**</t>
+  </si>
+  <si>
+    <t>**4.**</t>
+  </si>
+  <si>
+    <t>**5.**</t>
+  </si>
+  <si>
+    <t>**6.**</t>
+  </si>
+  <si>
+    <t>**7.**</t>
+  </si>
+  <si>
+    <t>**8.**</t>
+  </si>
+  <si>
+    <t>**9.**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[**DataCamp 1:** Introduction to R](https://www.datacamp.com/courses/free-introduction-to-r) </t>
+  </si>
+  <si>
+    <t>[**DataCamp 2:** Intermediate R](https://www.datacamp.com/courses/intermediate-r)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[**DataCamp 4a:** Intro to statistics with R](https://www.datacamp.com/courses/introduction-to-statistics-in-r) [&lt;br&gt;**DataCamp 4b:** Foundations of probability](https://www.datacamp.com/courses/foundations-of-probability-in-r)  </t>
+  </si>
+  <si>
+    <t>[**DataCamp 6a:** Reporting with R Markdown](https://datacamp.com/courses/reporting-with-rmarkdown) [&lt;br&gt;**DataCamp 6b:** Introduction to Shell/UNIX](https://datacamp.com/courses/introduction-to-shell)</t>
+  </si>
+  <si>
+    <t>[**DataCamp 9:** Machine learning fundamentals](https://datacamp.com/skill-tracks/machine-learning-fundamentals)</t>
+  </si>
+  <si>
+    <t>[**DataCamp 5a:** Foundations of inference](https://www.datacamp.com/courses/foundations-of-inference-in-r) [&lt;br&gt;**DataCamp 5b:** Inference linear regression](https://www.datacamp.com/courses/inference-for-linear-regression-in-r)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[**DataCamp 7a:** Introduction to tidyverse](https://datacamp.com/courses/introduction-to-the-tidyverse) [&lt;br&gt;**DataCamp 7b:** Data manipulation with R](https://datacamp.com/skill-tracks/data-manipulation-with-r)[&lt;br&gt;**DataCamp 7c:** Text mining with R ](https://datacamp.com/skill-tracks/text-mining-with-r)[&lt;br&gt;**DataCamp 7d:** Working with dates &amp; times](https://datacamp.com/courses/working-with-dates-and-times-in-r) </t>
+  </si>
+  <si>
+    <t>[**DataCamp 3a:** Intro DataViz ggplot2](https://www.datacamp.com/courses/data-visualization-with-ggplot2-1) [&lt;br&gt;**DataCamp 3b:** Intermed. DataViz  ggplot2](https://www.datacamp.com/courses/data-visualization-with-ggplot2-2)</t>
+  </si>
+  <si>
+    <t>[**DataCamp 8a:** Correlation and Regression](https://www.datacamp.com/courses/correlation-and-regression) [&lt;br&gt;**DataCamp 8b:** Multiple &amp; logistic regression](https://www.datacamp.com/courses/multiple-and-logistic-regression)</t>
+  </si>
+  <si>
+    <t>**Video Lectures**</t>
+  </si>
+  <si>
+    <t>[Data Science 1](https://rafalab.github.io/dsbook/getting-started.html)</t>
+  </si>
+  <si>
+    <t>[Data Science 2](https://www.edx.org/course/data-science-r-basics)</t>
+  </si>
+  <si>
+    <t>[Data Science 3](https://www.edx.org/course/data-science-visualization)</t>
+  </si>
+  <si>
+    <t>[Data Science 4](https://www.edx.org/course/data-science-probability)</t>
+  </si>
+  <si>
+    <t>[Data Science 5](https://www.edx.org/course/data-science-inference-and-modeling)</t>
+  </si>
+  <si>
+    <t>[Data Science 6](https://www.edx.org/course/data-science-productivity-tools)</t>
+  </si>
+  <si>
+    <t>[Data Science 7](https://www.edx.org/course/data-science-wrangling)</t>
+  </si>
+  <si>
+    <t>[Data Science 8](https://www.edx.org/course/data-science-linear-regression)</t>
+  </si>
+  <si>
+    <t>[Data Science 9](https://www.edx.org/course/data-science-machine-learning)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -805,13 +682,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -838,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -853,16 +723,22 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1157,454 +1033,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" customWidth="1"/>
+    <col min="1" max="2" width="31.5" style="5" customWidth="1"/>
+    <col min="3" max="4" width="35" style="6" customWidth="1"/>
+    <col min="5" max="6" width="42.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D4" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D5" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="238" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C10" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="119" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="119" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="170" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="170" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="170" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G21" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G24" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D28" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G30" s="1"/>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G33" s="1"/>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G36" s="1"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D42"/>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G45" s="1"/>
-    </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G48" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H43" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1" display="https://learn.datacamp.com/projects/673" xr:uid="{D338DF12-88CA-E64D-A19E-020F7332BB48}"/>
+    <hyperlink ref="G9" r:id="rId1" display="https://learn.datacamp.com/projects/673" xr:uid="{4386C830-A1C2-C845-8353-B92F41EB6111}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3E2C83-BA7E-7641-A2FE-4714117F1621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535D1F82-E144-4148-88A4-82AA58B7C35C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="29380" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,15 +621,9 @@
     <t>[**DataCamp 6a:** Reporting with R Markdown](https://datacamp.com/courses/reporting-with-rmarkdown) [&lt;br&gt;**DataCamp 6b:** Introduction to Shell/UNIX](https://datacamp.com/courses/introduction-to-shell)</t>
   </si>
   <si>
-    <t>[**DataCamp 9:** Machine learning fundamentals](https://datacamp.com/skill-tracks/machine-learning-fundamentals)</t>
-  </si>
-  <si>
     <t>[**DataCamp 5a:** Foundations of inference](https://www.datacamp.com/courses/foundations-of-inference-in-r) [&lt;br&gt;**DataCamp 5b:** Inference linear regression](https://www.datacamp.com/courses/inference-for-linear-regression-in-r)</t>
   </si>
   <si>
-    <t xml:space="preserve">[**DataCamp 7a:** Introduction to tidyverse](https://datacamp.com/courses/introduction-to-the-tidyverse) [&lt;br&gt;**DataCamp 7b:** Data manipulation with R](https://datacamp.com/skill-tracks/data-manipulation-with-r)[&lt;br&gt;**DataCamp 7c:** Text mining with R ](https://datacamp.com/skill-tracks/text-mining-with-r)[&lt;br&gt;**DataCamp 7d:** Working with dates &amp; times](https://datacamp.com/courses/working-with-dates-and-times-in-r) </t>
-  </si>
-  <si>
     <t>[**DataCamp 3a:** Intro DataViz ggplot2](https://www.datacamp.com/courses/data-visualization-with-ggplot2-1) [&lt;br&gt;**DataCamp 3b:** Intermed. DataViz  ggplot2](https://www.datacamp.com/courses/data-visualization-with-ggplot2-2)</t>
   </si>
   <si>
@@ -664,6 +658,12 @@
   </si>
   <si>
     <t>[Data Science 9](https://www.edx.org/course/data-science-machine-learning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[**DataCamp 7a:** Introduction to tidyverse](https://datacamp.com/courses/introduction-to-the-tidyverse) [&lt;br&gt;**DataCamp 7b:** Data manipulation with R](https://learn.datacamp.com/skill-tracks/data-manipulation-with-r)[&lt;br&gt;**DataCamp 7c:** Text mining with R ](https://learn.datacamp.com/skill-tracks/text-mining-with-r)[&lt;br&gt;**DataCamp 7d:** Working with dates &amp; times](https://datacamp.com/courses/working-with-dates-and-times-in-r) </t>
+  </si>
+  <si>
+    <t>[**DataCamp 9:** Machine learning fundamentals](https://learn.datacamp.com/skill-tracks/machine-learning-fundamentals)</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1059,7 +1059,7 @@
         <v>166</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>167</v>
@@ -1082,7 +1082,7 @@
         <v>139</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>147</v>
@@ -1104,7 +1104,7 @@
         <v>138</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>147</v>
@@ -1125,13 +1125,13 @@
         <v>140</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>157</v>
@@ -1148,7 +1148,7 @@
         <v>141</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>147</v>
@@ -1171,13 +1171,13 @@
         <v>142</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>161</v>
@@ -1194,7 +1194,7 @@
         <v>143</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>147</v>
@@ -1215,13 +1215,13 @@
         <v>144</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>160</v>
@@ -1238,13 +1238,13 @@
         <v>145</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>162</v>
@@ -1261,13 +1261,13 @@
         <v>146</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>159</v>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535D1F82-E144-4148-88A4-82AA58B7C35C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0D57C6-A77F-324C-BFDB-03E25423D46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="29380" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,37 +633,37 @@
     <t>**Video Lectures**</t>
   </si>
   <si>
-    <t>[Data Science 1](https://rafalab.github.io/dsbook/getting-started.html)</t>
-  </si>
-  <si>
-    <t>[Data Science 2](https://www.edx.org/course/data-science-r-basics)</t>
-  </si>
-  <si>
-    <t>[Data Science 3](https://www.edx.org/course/data-science-visualization)</t>
-  </si>
-  <si>
-    <t>[Data Science 4](https://www.edx.org/course/data-science-probability)</t>
-  </si>
-  <si>
-    <t>[Data Science 5](https://www.edx.org/course/data-science-inference-and-modeling)</t>
-  </si>
-  <si>
-    <t>[Data Science 6](https://www.edx.org/course/data-science-productivity-tools)</t>
-  </si>
-  <si>
-    <t>[Data Science 7](https://www.edx.org/course/data-science-wrangling)</t>
-  </si>
-  <si>
-    <t>[Data Science 8](https://www.edx.org/course/data-science-linear-regression)</t>
-  </si>
-  <si>
-    <t>[Data Science 9](https://www.edx.org/course/data-science-machine-learning)</t>
-  </si>
-  <si>
     <t xml:space="preserve">[**DataCamp 7a:** Introduction to tidyverse](https://datacamp.com/courses/introduction-to-the-tidyverse) [&lt;br&gt;**DataCamp 7b:** Data manipulation with R](https://learn.datacamp.com/skill-tracks/data-manipulation-with-r)[&lt;br&gt;**DataCamp 7c:** Text mining with R ](https://learn.datacamp.com/skill-tracks/text-mining-with-r)[&lt;br&gt;**DataCamp 7d:** Working with dates &amp; times](https://datacamp.com/courses/working-with-dates-and-times-in-r) </t>
   </si>
   <si>
     <t>[**DataCamp 9:** Machine learning fundamentals](https://learn.datacamp.com/skill-tracks/machine-learning-fundamentals)</t>
+  </si>
+  <si>
+    <t>[DataSci 1](https://rafalab.github.io/dsbook/getting-started.html)</t>
+  </si>
+  <si>
+    <t>[DataSci 2](https://www.edx.org/course/data-science-r-basics)</t>
+  </si>
+  <si>
+    <t>[DataSci 3](https://www.edx.org/course/data-science-visualization)</t>
+  </si>
+  <si>
+    <t>[DataSci 4](https://www.edx.org/course/data-science-probability)</t>
+  </si>
+  <si>
+    <t>[DataSci 5](https://www.edx.org/course/data-science-inference-and-modeling)</t>
+  </si>
+  <si>
+    <t>[DataSci 6](https://www.edx.org/course/data-science-productivity-tools)</t>
+  </si>
+  <si>
+    <t>[DataSci 7](https://www.edx.org/course/data-science-wrangling)</t>
+  </si>
+  <si>
+    <t>[DataSci 8](https://www.edx.org/course/data-science-linear-regression)</t>
+  </si>
+  <si>
+    <t>[DataSci 9](https://www.edx.org/course/data-science-machine-learning)</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1082,7 +1082,7 @@
         <v>139</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>147</v>
@@ -1104,7 +1104,7 @@
         <v>138</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>147</v>
@@ -1125,7 +1125,7 @@
         <v>140</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>147</v>
@@ -1148,7 +1148,7 @@
         <v>141</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>147</v>
@@ -1171,7 +1171,7 @@
         <v>142</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>147</v>
@@ -1194,7 +1194,7 @@
         <v>143</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>147</v>
@@ -1215,13 +1215,13 @@
         <v>144</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>160</v>
@@ -1238,7 +1238,7 @@
         <v>145</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>147</v>
@@ -1261,13 +1261,13 @@
         <v>146</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>159</v>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0D57C6-A77F-324C-BFDB-03E25423D46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0A6241-9352-4F45-B29F-2DDD247981DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="29380" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,9 +561,6 @@
     <t>[**PROJECT 1:** Leveling in Candy Crush Saga](https://datacamp.com/projects/139)  [&lt;br&gt;**PROJECT 2:** Modeling the Volatility of US Bond Yields](https://datacamp.com/projects/738)</t>
   </si>
   <si>
-    <t>[**Project:** Trends in Maryland Crime Rates](https://datacamp.com/projects/673)</t>
-  </si>
-  <si>
     <t>DataCamp Project</t>
   </si>
   <si>
@@ -664,6 +661,9 @@
   </si>
   <si>
     <t>[DataSci 9](https://www.edx.org/course/data-science-machine-learning)</t>
+  </si>
+  <si>
+    <t>[**PROJECT:** Trends in Maryland Crime Rates](https://datacamp.com/projects/673)</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1050,30 +1050,30 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>168</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>148</v>
@@ -1082,20 +1082,20 @@
         <v>139</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>149</v>
@@ -1104,19 +1104,19 @@
         <v>138</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>150</v>
@@ -1125,13 +1125,13 @@
         <v>140</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>157</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="5" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>151</v>
@@ -1148,13 +1148,13 @@
         <v>141</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>158</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="6" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>152</v>
@@ -1171,13 +1171,13 @@
         <v>142</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>161</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>153</v>
@@ -1194,19 +1194,19 @@
         <v>143</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>154</v>
@@ -1215,13 +1215,13 @@
         <v>144</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>160</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="9" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>155</v>
@@ -1238,21 +1238,21 @@
         <v>145</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>156</v>
@@ -1261,13 +1261,13 @@
         <v>146</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>159</v>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0A6241-9352-4F45-B29F-2DDD247981DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC3323F-0AC8-F142-963E-9CEDAD15D17B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="29380" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,9 +579,6 @@
     <t>**DataCamp Practice**</t>
   </si>
   <si>
-    <t xml:space="preserve">**1.** </t>
-  </si>
-  <si>
     <t>**2.**</t>
   </si>
   <si>
@@ -603,9 +600,6 @@
     <t>**8.**</t>
   </si>
   <si>
-    <t>**9.**</t>
-  </si>
-  <si>
     <t xml:space="preserve">[**DataCamp 1:** Introduction to R](https://www.datacamp.com/courses/free-introduction-to-r) </t>
   </si>
   <si>
@@ -627,50 +621,56 @@
     <t>[**DataCamp 8a:** Correlation and Regression](https://www.datacamp.com/courses/correlation-and-regression) [&lt;br&gt;**DataCamp 8b:** Multiple &amp; logistic regression](https://www.datacamp.com/courses/multiple-and-logistic-regression)</t>
   </si>
   <si>
-    <t>**Video Lectures**</t>
-  </si>
-  <si>
     <t xml:space="preserve">[**DataCamp 7a:** Introduction to tidyverse](https://datacamp.com/courses/introduction-to-the-tidyverse) [&lt;br&gt;**DataCamp 7b:** Data manipulation with R](https://learn.datacamp.com/skill-tracks/data-manipulation-with-r)[&lt;br&gt;**DataCamp 7c:** Text mining with R ](https://learn.datacamp.com/skill-tracks/text-mining-with-r)[&lt;br&gt;**DataCamp 7d:** Working with dates &amp; times](https://datacamp.com/courses/working-with-dates-and-times-in-r) </t>
   </si>
   <si>
     <t>[**DataCamp 9:** Machine learning fundamentals](https://learn.datacamp.com/skill-tracks/machine-learning-fundamentals)</t>
   </si>
   <si>
-    <t>[DataSci 1](https://rafalab.github.io/dsbook/getting-started.html)</t>
-  </si>
-  <si>
-    <t>[DataSci 2](https://www.edx.org/course/data-science-r-basics)</t>
-  </si>
-  <si>
-    <t>[DataSci 3](https://www.edx.org/course/data-science-visualization)</t>
-  </si>
-  <si>
-    <t>[DataSci 4](https://www.edx.org/course/data-science-probability)</t>
-  </si>
-  <si>
-    <t>[DataSci 5](https://www.edx.org/course/data-science-inference-and-modeling)</t>
-  </si>
-  <si>
-    <t>[DataSci 6](https://www.edx.org/course/data-science-productivity-tools)</t>
-  </si>
-  <si>
-    <t>[DataSci 7](https://www.edx.org/course/data-science-wrangling)</t>
-  </si>
-  <si>
-    <t>[DataSci 8](https://www.edx.org/course/data-science-linear-regression)</t>
-  </si>
-  <si>
-    <t>[DataSci 9](https://www.edx.org/course/data-science-machine-learning)</t>
-  </si>
-  <si>
     <t>[**PROJECT:** Trends in Maryland Crime Rates](https://datacamp.com/projects/673)</t>
+  </si>
+  <si>
+    <t>**datsci Module**</t>
+  </si>
+  <si>
+    <t>datsci_0</t>
+  </si>
+  <si>
+    <t>datsci_1</t>
+  </si>
+  <si>
+    <t>datsci_2</t>
+  </si>
+  <si>
+    <t>datsci_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**0.** </t>
+  </si>
+  <si>
+    <t>**1.**</t>
+  </si>
+  <si>
+    <t>datsci_4</t>
+  </si>
+  <si>
+    <t>datsci_5</t>
+  </si>
+  <si>
+    <t>datsci_6</t>
+  </si>
+  <si>
+    <t>datsci_7</t>
+  </si>
+  <si>
+    <t>datsci_8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -682,6 +682,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -708,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -738,6 +745,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1035,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1059,7 +1069,7 @@
         <v>165</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>166</v>
@@ -1073,7 +1083,7 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>148</v>
@@ -1082,20 +1092,20 @@
         <v>139</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>149</v>
@@ -1104,19 +1114,19 @@
         <v>138</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>150</v>
@@ -1124,14 +1134,14 @@
       <c r="C4" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>189</v>
+      <c r="D4" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>157</v>
@@ -1139,7 +1149,7 @@
     </row>
     <row r="5" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>151</v>
@@ -1148,13 +1158,13 @@
         <v>141</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>158</v>
@@ -1162,7 +1172,7 @@
     </row>
     <row r="6" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>152</v>
@@ -1171,13 +1181,13 @@
         <v>142</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>161</v>
@@ -1185,7 +1195,7 @@
     </row>
     <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>153</v>
@@ -1194,19 +1204,19 @@
         <v>143</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>154</v>
@@ -1214,14 +1224,14 @@
       <c r="C8" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>193</v>
+      <c r="D8" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>160</v>
@@ -1229,7 +1239,7 @@
     </row>
     <row r="9" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>155</v>
@@ -1237,22 +1247,22 @@
       <c r="C9" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>194</v>
+      <c r="D9" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>156</v>
@@ -1260,14 +1270,14 @@
       <c r="C10" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>195</v>
+      <c r="D10" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>159</v>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC3323F-0AC8-F142-963E-9CEDAD15D17B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4753E83F-2E1E-B84A-BDCD-566D004F6D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="29380" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,9 +516,6 @@
     <t>[Machine Learning](https://rafalab.github.io/dsbook/introduction-to-machine-learning.html)</t>
   </si>
   <si>
-    <t>Available by semester start</t>
-  </si>
-  <si>
     <t xml:space="preserve">Introduction &amp; Software </t>
   </si>
   <si>
@@ -664,6 +661,9 @@
   </si>
   <si>
     <t>datsci_8</t>
+  </si>
+  <si>
+    <t>Available by trimester start</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1060,227 +1060,227 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>138</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>141</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>142</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>145</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>146</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4753E83F-2E1E-B84A-BDCD-566D004F6D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A150330-2B56-CE40-89E5-C6D9EAB3A0F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="29380" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,40 +630,40 @@
     <t>**datsci Module**</t>
   </si>
   <si>
-    <t>datsci_0</t>
-  </si>
-  <si>
-    <t>datsci_1</t>
-  </si>
-  <si>
-    <t>datsci_2</t>
-  </si>
-  <si>
-    <t>datsci_3</t>
-  </si>
-  <si>
     <t xml:space="preserve">**0.** </t>
   </si>
   <si>
     <t>**1.**</t>
   </si>
   <si>
-    <t>datsci_4</t>
-  </si>
-  <si>
-    <t>datsci_5</t>
-  </si>
-  <si>
-    <t>datsci_6</t>
-  </si>
-  <si>
-    <t>datsci_7</t>
-  </si>
-  <si>
-    <t>datsci_8</t>
-  </si>
-  <si>
     <t>Available by trimester start</t>
+  </si>
+  <si>
+    <t>datsci_00</t>
+  </si>
+  <si>
+    <t>datsci_01</t>
+  </si>
+  <si>
+    <t>datsci_02</t>
+  </si>
+  <si>
+    <t>datsci_03</t>
+  </si>
+  <si>
+    <t>datsci_04</t>
+  </si>
+  <si>
+    <t>datsci_05</t>
+  </si>
+  <si>
+    <t>datsci_06</t>
+  </si>
+  <si>
+    <t>datsci_07</t>
+  </si>
+  <si>
+    <t>datsci_08</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>147</v>
@@ -1092,10 +1092,10 @@
         <v>139</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>174</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>148</v>
@@ -1114,10 +1114,10 @@
         <v>138</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>175</v>
@@ -1135,10 +1135,10 @@
         <v>140</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>179</v>
@@ -1158,10 +1158,10 @@
         <v>141</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>176</v>
@@ -1181,10 +1181,10 @@
         <v>142</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>178</v>
@@ -1204,10 +1204,10 @@
         <v>143</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>177</v>
@@ -1225,10 +1225,10 @@
         <v>144</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>181</v>
@@ -1248,10 +1248,10 @@
         <v>145</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>180</v>
@@ -1271,10 +1271,10 @@
         <v>146</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>182</v>
